--- a/System Design Block Table.xlsx
+++ b/System Design Block Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Sybsystem</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>System Design Block Table for Pick and Place Robot System</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +493,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="2">
-        <v>42711</v>
+        <v>42643</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -640,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <v>42711</v>
+        <v>42638</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -658,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>42711</v>
+        <v>42639</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -676,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>42711</v>
+        <v>42658</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -693,8 +699,8 @@
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
-        <v>42711</v>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -711,8 +717,8 @@
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="2">
-        <v>42711</v>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -730,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>42711</v>
+        <v>42643</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>

--- a/System Design Block Table.xlsx
+++ b/System Design Block Table.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Sybsystem</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Est. Cost</t>
-  </si>
-  <si>
-    <t>Est. Date Complete</t>
-  </si>
-  <si>
     <t>Developer Name(s)</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Robot Structure</t>
   </si>
   <si>
-    <t>3D-printed mechanical structure of the robot</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
@@ -86,42 +77,18 @@
     <t>Electromagnet</t>
   </si>
   <si>
-    <t>Servo Motors for the rotation of the arms (x2)</t>
-  </si>
-  <si>
     <t>Electromagnet to pick up the metal shapes</t>
   </si>
   <si>
-    <t>Arduino Uno R3</t>
-  </si>
-  <si>
     <t>Arduino Dev board for controlling robot arm</t>
   </si>
   <si>
-    <t>Sainsmart Motor Shield</t>
-  </si>
-  <si>
-    <t>Arduino Shield for controlling motors</t>
-  </si>
-  <si>
-    <t>Servo/Stepper Motor</t>
-  </si>
-  <si>
-    <t>Servo or Stepper Motor for the rotation of the robot base (undecided)</t>
-  </si>
-  <si>
     <t>Kurtis Rickelmann</t>
   </si>
   <si>
     <t>Arduino</t>
   </si>
   <si>
-    <t>Sainsmart</t>
-  </si>
-  <si>
-    <t>TowerPro</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -137,17 +104,62 @@
     <t>System Design Block Table for Pick and Place Robot System</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Fiberglass and Wood for structure of the robot</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Estimated $10 on fiberglass and $10 on wood</t>
+  </si>
+  <si>
+    <t>Radient</t>
+  </si>
+  <si>
+    <t>Servo Motor for the rotation of the robot base and shoulder</t>
+  </si>
+  <si>
+    <t>Cost (each)</t>
+  </si>
+  <si>
+    <t>Cost Total</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Servo Motor for the rotation of the elbow</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Logitech</t>
+  </si>
+  <si>
+    <t>5V Power Supply</t>
+  </si>
+  <si>
+    <t>Power supply for the servo motors</t>
+  </si>
+  <si>
+    <t>Lazy Susan Turntable</t>
+  </si>
+  <si>
+    <t>Turntable for the base of the robot to have easy rotation</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +178,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,21 +212,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,22 +521,25 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,226 +550,293 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10*E10</f>
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F17" si="0">D11*E11</f>
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
-        <v>42655</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42655</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42711</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2">
-        <v>42711</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
-        <v>42643</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42638</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42639</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>42658</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>42643</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <f>SUM(F10:F17)</f>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
